--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,13 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>however</t>
+    <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -55,33 +58,30 @@
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -94,22 +94,19 @@
     <t>size</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>used</t>
   </si>
   <si>
     <t>work</t>
@@ -524,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,37 +640,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.78125</v>
       </c>
       <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.5849056603773585</v>
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7281553398058253</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6619718309859155</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.3245901639344262</v>
+        <v>0.3467213114754099</v>
       </c>
       <c r="L8">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="M8">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>824</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.2955523672883787</v>
+        <v>0.3055954088952654</v>
       </c>
       <c r="L9">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M9">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6216216216216216</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.2800829875518672</v>
+        <v>0.2427385892116183</v>
       </c>
       <c r="L10">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="M10">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5798319327731093</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.1867469879518072</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4698795180722892</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.1865443425076453</v>
+        <v>0.1681957186544343</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4608695652173913</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C13">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D13">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.08150744960560911</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1048</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4251968503937008</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.03828682673588579</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1482</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3483146067415731</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1245,13 +1242,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2920792079207921</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1297,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2511848341232227</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1349,13 +1346,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2214285714285714</v>
+        <v>0.185</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1367,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1375,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1847133757961783</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1393,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1401,13 +1398,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.18</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>164</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1427,25 +1424,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1780415430267062</v>
+        <v>0.1679049034175334</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1453,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1708860759493671</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1471,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>262</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1479,13 +1476,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1630434782608696</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1497,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>231</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1505,25 +1502,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1587301587301587</v>
+        <v>0.13215859030837</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>265</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1531,13 +1528,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.145374449339207</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1549,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>388</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1557,25 +1554,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1354466858789625</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1583,13 +1580,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09315068493150686</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1601,33 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.06578947368421052</v>
-      </c>
-      <c r="C31">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
